--- a/05_functional_enrichment/funciones_Adulto_120_kegg_downs.xlsx
+++ b/05_functional_enrichment/funciones_Adulto_120_kegg_downs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="310">
   <si>
     <t>ID</t>
   </si>
@@ -134,15 +134,15 @@
     <t>00900</t>
   </si>
   <si>
+    <t>04514</t>
+  </si>
+  <si>
     <t>00670</t>
   </si>
   <si>
     <t>04130</t>
   </si>
   <si>
-    <t>04514</t>
-  </si>
-  <si>
     <t>03018</t>
   </si>
   <si>
@@ -233,12 +233,12 @@
     <t>04012</t>
   </si>
   <si>
+    <t>04630</t>
+  </si>
+  <si>
     <t>03050</t>
   </si>
   <si>
-    <t>04630</t>
-  </si>
-  <si>
     <t>04530</t>
   </si>
   <si>
@@ -371,15 +371,15 @@
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
+    <t>Cell adhesion molecules</t>
+  </si>
+  <si>
     <t>One carbon pool by folate</t>
   </si>
   <si>
     <t>SNARE interactions in vesicular transport</t>
   </si>
   <si>
-    <t>Cell adhesion molecules</t>
-  </si>
-  <si>
     <t>RNA degradation</t>
   </si>
   <si>
@@ -539,190 +539,190 @@
     <t>1/137</t>
   </si>
   <si>
-    <t>36/4578</t>
-  </si>
-  <si>
-    <t>62/4578</t>
-  </si>
-  <si>
-    <t>30/4578</t>
-  </si>
-  <si>
-    <t>31/4578</t>
-  </si>
-  <si>
-    <t>167/4578</t>
-  </si>
-  <si>
-    <t>26/4578</t>
-  </si>
-  <si>
-    <t>28/4578</t>
-  </si>
-  <si>
-    <t>65/4578</t>
-  </si>
-  <si>
-    <t>20/4578</t>
-  </si>
-  <si>
-    <t>37/4578</t>
-  </si>
-  <si>
-    <t>22/4578</t>
-  </si>
-  <si>
-    <t>10/4578</t>
-  </si>
-  <si>
-    <t>43/4578</t>
-  </si>
-  <si>
-    <t>12/4578</t>
-  </si>
-  <si>
-    <t>49/4578</t>
-  </si>
-  <si>
-    <t>96/4578</t>
-  </si>
-  <si>
-    <t>33/4578</t>
-  </si>
-  <si>
-    <t>17/4578</t>
-  </si>
-  <si>
-    <t>118/4578</t>
-  </si>
-  <si>
-    <t>123/4578</t>
-  </si>
-  <si>
-    <t>73/4578</t>
-  </si>
-  <si>
-    <t>77/4578</t>
-  </si>
-  <si>
-    <t>166/4578</t>
-  </si>
-  <si>
-    <t>116/4578</t>
-  </si>
-  <si>
-    <t>89/4578</t>
-  </si>
-  <si>
-    <t>11/4578</t>
-  </si>
-  <si>
-    <t>13/4578</t>
-  </si>
-  <si>
-    <t>14/4578</t>
-  </si>
-  <si>
-    <t>15/4578</t>
-  </si>
-  <si>
-    <t>103/4578</t>
-  </si>
-  <si>
-    <t>44/4578</t>
-  </si>
-  <si>
-    <t>46/4578</t>
-  </si>
-  <si>
-    <t>174/4578</t>
-  </si>
-  <si>
-    <t>18/4578</t>
-  </si>
-  <si>
-    <t>88/4578</t>
-  </si>
-  <si>
-    <t>125/4578</t>
-  </si>
-  <si>
-    <t>94/4578</t>
-  </si>
-  <si>
-    <t>60/4578</t>
-  </si>
-  <si>
-    <t>27/4578</t>
-  </si>
-  <si>
-    <t>29/4578</t>
-  </si>
-  <si>
-    <t>283/4578</t>
-  </si>
-  <si>
-    <t>38/4578</t>
-  </si>
-  <si>
-    <t>40/4578</t>
-  </si>
-  <si>
-    <t>42/4578</t>
-  </si>
-  <si>
-    <t>127/4578</t>
-  </si>
-  <si>
-    <t>252/4578</t>
-  </si>
-  <si>
-    <t>135/4578</t>
-  </si>
-  <si>
-    <t>95/4578</t>
-  </si>
-  <si>
-    <t>55/4578</t>
-  </si>
-  <si>
-    <t>102/4578</t>
-  </si>
-  <si>
-    <t>148/4578</t>
-  </si>
-  <si>
-    <t>61/4578</t>
-  </si>
-  <si>
-    <t>112/4578</t>
-  </si>
-  <si>
-    <t>364/4578</t>
-  </si>
-  <si>
-    <t>212/4578</t>
-  </si>
-  <si>
-    <t>129/4578</t>
-  </si>
-  <si>
-    <t>81/4578</t>
-  </si>
-  <si>
-    <t>235/4578</t>
-  </si>
-  <si>
-    <t>86/4578</t>
-  </si>
-  <si>
-    <t>154/4578</t>
-  </si>
-  <si>
-    <t>133/4578</t>
-  </si>
-  <si>
-    <t>224/4578</t>
+    <t>36/4577</t>
+  </si>
+  <si>
+    <t>62/4577</t>
+  </si>
+  <si>
+    <t>30/4577</t>
+  </si>
+  <si>
+    <t>31/4577</t>
+  </si>
+  <si>
+    <t>167/4577</t>
+  </si>
+  <si>
+    <t>26/4577</t>
+  </si>
+  <si>
+    <t>28/4577</t>
+  </si>
+  <si>
+    <t>65/4577</t>
+  </si>
+  <si>
+    <t>20/4577</t>
+  </si>
+  <si>
+    <t>37/4577</t>
+  </si>
+  <si>
+    <t>22/4577</t>
+  </si>
+  <si>
+    <t>10/4577</t>
+  </si>
+  <si>
+    <t>43/4577</t>
+  </si>
+  <si>
+    <t>12/4577</t>
+  </si>
+  <si>
+    <t>49/4577</t>
+  </si>
+  <si>
+    <t>96/4577</t>
+  </si>
+  <si>
+    <t>33/4577</t>
+  </si>
+  <si>
+    <t>17/4577</t>
+  </si>
+  <si>
+    <t>118/4577</t>
+  </si>
+  <si>
+    <t>123/4577</t>
+  </si>
+  <si>
+    <t>73/4577</t>
+  </si>
+  <si>
+    <t>77/4577</t>
+  </si>
+  <si>
+    <t>166/4577</t>
+  </si>
+  <si>
+    <t>115/4577</t>
+  </si>
+  <si>
+    <t>89/4577</t>
+  </si>
+  <si>
+    <t>11/4577</t>
+  </si>
+  <si>
+    <t>13/4577</t>
+  </si>
+  <si>
+    <t>14/4577</t>
+  </si>
+  <si>
+    <t>102/4577</t>
+  </si>
+  <si>
+    <t>15/4577</t>
+  </si>
+  <si>
+    <t>44/4577</t>
+  </si>
+  <si>
+    <t>46/4577</t>
+  </si>
+  <si>
+    <t>174/4577</t>
+  </si>
+  <si>
+    <t>18/4577</t>
+  </si>
+  <si>
+    <t>88/4577</t>
+  </si>
+  <si>
+    <t>124/4577</t>
+  </si>
+  <si>
+    <t>94/4577</t>
+  </si>
+  <si>
+    <t>60/4577</t>
+  </si>
+  <si>
+    <t>27/4577</t>
+  </si>
+  <si>
+    <t>29/4577</t>
+  </si>
+  <si>
+    <t>283/4577</t>
+  </si>
+  <si>
+    <t>38/4577</t>
+  </si>
+  <si>
+    <t>40/4577</t>
+  </si>
+  <si>
+    <t>42/4577</t>
+  </si>
+  <si>
+    <t>127/4577</t>
+  </si>
+  <si>
+    <t>252/4577</t>
+  </si>
+  <si>
+    <t>135/4577</t>
+  </si>
+  <si>
+    <t>95/4577</t>
+  </si>
+  <si>
+    <t>101/4577</t>
+  </si>
+  <si>
+    <t>55/4577</t>
+  </si>
+  <si>
+    <t>148/4577</t>
+  </si>
+  <si>
+    <t>61/4577</t>
+  </si>
+  <si>
+    <t>112/4577</t>
+  </si>
+  <si>
+    <t>364/4577</t>
+  </si>
+  <si>
+    <t>212/4577</t>
+  </si>
+  <si>
+    <t>129/4577</t>
+  </si>
+  <si>
+    <t>81/4577</t>
+  </si>
+  <si>
+    <t>235/4577</t>
+  </si>
+  <si>
+    <t>86/4577</t>
+  </si>
+  <si>
+    <t>154/4577</t>
+  </si>
+  <si>
+    <t>133/4577</t>
+  </si>
+  <si>
+    <t>224/4577</t>
   </si>
   <si>
     <t>gnat2/grk7a/gngt1/arr3b/grk1b/grk1a/gnat1/pde6a/arr3a/rho/rcvrna</t>
@@ -818,15 +818,15 @@
     <t>hmgcra</t>
   </si>
   <si>
+    <t>cldng/sdc4/alcama/cldn5b</t>
+  </si>
+  <si>
     <t>mthfd2</t>
   </si>
   <si>
     <t>vamp1a/snap25b</t>
   </si>
   <si>
-    <t>cldng/sdc4/alcama/cldn5b</t>
-  </si>
-  <si>
     <t>exosc2/exosc5/btg2</t>
   </si>
   <si>
@@ -899,10 +899,10 @@
     <t>cdkn1a/jun</t>
   </si>
   <si>
+    <t>socs3b/gh1</t>
+  </si>
+  <si>
     <t>psmb7</t>
-  </si>
-  <si>
-    <t>socs3b/gh1</t>
   </si>
   <si>
     <t>cldng/myl9b/cldn5b</t>
@@ -1039,13 +1039,13 @@
         <v>175</v>
       </c>
       <c r="F2" t="n">
-        <v>3.6584633831952436E-9</v>
+        <v>3.66675403887458E-9</v>
       </c>
       <c r="G2" t="n">
-        <v>2.926770706556195E-7</v>
+        <v>2.933403231099664E-7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.5031591569230617E-7</v>
+        <v>2.508831710808923E-7</v>
       </c>
       <c r="I2" t="s">
         <v>237</v>
@@ -1071,13 +1071,13 @@
         <v>176</v>
       </c>
       <c r="F3" t="n">
-        <v>4.5308650647542606E-4</v>
+        <v>4.537429170939795E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01812346025901704</v>
+        <v>0.01814971668375918</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01550032785310668</v>
+        <v>0.015522784005846668</v>
       </c>
       <c r="I3" t="s">
         <v>238</v>
@@ -1103,13 +1103,13 @@
         <v>177</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0017392431499317648</v>
+        <v>0.0017409134329982652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04049080692042156</v>
+        <v>0.04052948048234684</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03463029539246581</v>
+        <v>0.034663371465165065</v>
       </c>
       <c r="I4" t="s">
         <v>239</v>
@@ -1135,13 +1135,13 @@
         <v>178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.002024540346021078</v>
+        <v>0.002026474024117342</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04049080692042156</v>
+        <v>0.04052948048234684</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03463029539246581</v>
+        <v>0.034663371465165065</v>
       </c>
       <c r="I5" t="s">
         <v>240</v>
@@ -1167,13 +1167,13 @@
         <v>179</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003939860116582859</v>
+        <v>0.0039467463042265945</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06303776186532574</v>
+        <v>0.06314794086762551</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05391387527955491</v>
+        <v>0.0540081073209955</v>
       </c>
       <c r="I6" t="s">
         <v>241</v>
@@ -1199,13 +1199,13 @@
         <v>180</v>
       </c>
       <c r="F7" t="n">
-        <v>0.006876343202191092</v>
+        <v>0.0068815829322841394</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09168457602921457</v>
+        <v>0.09175443909712186</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07841444002498613</v>
+        <v>0.07847419133306474</v>
       </c>
       <c r="I7" t="s">
         <v>242</v>
@@ -1231,13 +1231,13 @@
         <v>181</v>
       </c>
       <c r="F8" t="n">
-        <v>0.008992992888731934</v>
+        <v>0.008999755688245572</v>
       </c>
       <c r="G8" t="n">
-        <v>0.10277706158550781</v>
+        <v>0.10285435072280653</v>
       </c>
       <c r="H8" t="n">
-        <v>0.08790143425076326</v>
+        <v>0.08796753680240033</v>
       </c>
       <c r="I8" t="s">
         <v>243</v>
@@ -1263,13 +1263,13 @@
         <v>182</v>
       </c>
       <c r="F9" t="n">
-        <v>0.012493176094496525</v>
+        <v>0.012505609969997503</v>
       </c>
       <c r="G9" t="n">
-        <v>0.11465039172084697</v>
+        <v>0.11473490181204442</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09805625607704016</v>
+        <v>0.09812853444451167</v>
       </c>
       <c r="I9" t="s">
         <v>244</v>
@@ -1295,13 +1295,13 @@
         <v>178</v>
       </c>
       <c r="F10" t="n">
-        <v>0.012898169068595283</v>
+        <v>0.012907676453854997</v>
       </c>
       <c r="G10" t="n">
-        <v>0.11465039172084697</v>
+        <v>0.11473490181204442</v>
       </c>
       <c r="H10" t="n">
-        <v>0.09805625607704016</v>
+        <v>0.09812853444451167</v>
       </c>
       <c r="I10" t="s">
         <v>245</v>
@@ -1327,13 +1327,13 @@
         <v>183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.020586228602765693</v>
+        <v>0.020598047327884454</v>
       </c>
       <c r="G11" t="n">
-        <v>0.16468982882212554</v>
+        <v>0.16478437862307563</v>
       </c>
       <c r="H11" t="n">
-        <v>0.14085314307155475</v>
+        <v>0.14093400803289363</v>
       </c>
       <c r="I11" t="s">
         <v>246</v>
@@ -1359,13 +1359,13 @@
         <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02359680646478762</v>
+        <v>0.02361350418017108</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17161313792572813</v>
+        <v>0.17173457585578966</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1467743942785833</v>
+        <v>0.14687825566613588</v>
       </c>
       <c r="I12" t="s">
         <v>247</v>
@@ -1391,13 +1391,13 @@
         <v>185</v>
       </c>
       <c r="F13" t="n">
-        <v>0.026630284242206377</v>
+        <v>0.026645324643887153</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17753522828137586</v>
+        <v>0.17763549762591435</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1518393399774925</v>
+        <v>0.15192509665374254</v>
       </c>
       <c r="I13" t="s">
         <v>248</v>
@@ -1423,13 +1423,13 @@
         <v>186</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03418055833821809</v>
+        <v>0.034194318176682316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2103418974659575</v>
+        <v>0.21042657339496812</v>
       </c>
       <c r="H14" t="n">
-        <v>0.17989767546430574</v>
+        <v>0.179970095666749</v>
       </c>
       <c r="I14" t="s">
         <v>249</v>
@@ -1455,13 +1455,13 @@
         <v>187</v>
       </c>
       <c r="F15" t="n">
-        <v>0.03846383648155305</v>
+        <v>0.038489936890275606</v>
       </c>
       <c r="G15" t="n">
-        <v>0.21979335132316027</v>
+        <v>0.21994249651586062</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1879811557369134</v>
+        <v>0.18810871412540708</v>
       </c>
       <c r="I15" t="s">
         <v>250</v>
@@ -1477,8 +1477,8 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="e">
-        <v>#N/A</v>
+      <c r="C16" t="s">
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>172</v>
@@ -1487,13 +1487,13 @@
         <v>188</v>
       </c>
       <c r="F16" t="n">
-        <v>0.04821818806601962</v>
+        <v>0.04823719356779789</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25716366968543797</v>
+        <v>0.2572650323615887</v>
       </c>
       <c r="H16" t="n">
-        <v>0.21994261223096667</v>
+        <v>0.22002930399346401</v>
       </c>
       <c r="I16" t="s">
         <v>251</v>
@@ -1519,13 +1519,13 @@
         <v>189</v>
       </c>
       <c r="F17" t="n">
-        <v>0.05765853312053382</v>
+        <v>0.05769600921989924</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2882926656026691</v>
+        <v>0.2884800460994962</v>
       </c>
       <c r="H17" t="n">
-        <v>0.24656609558123013</v>
+        <v>0.24672635521667435</v>
       </c>
       <c r="I17" t="s">
         <v>252</v>
@@ -1551,13 +1551,13 @@
         <v>190</v>
       </c>
       <c r="F18" t="n">
-        <v>0.06659931323525276</v>
+        <v>0.06665512416477172</v>
       </c>
       <c r="G18" t="n">
-        <v>0.31340853287177767</v>
+        <v>0.31367117254010224</v>
       </c>
       <c r="H18" t="n">
-        <v>0.268046771535073</v>
+        <v>0.26827139756719265</v>
       </c>
       <c r="I18" t="s">
         <v>253</v>
@@ -1583,13 +1583,13 @@
         <v>191</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07452241584365264</v>
+        <v>0.07456076955129587</v>
       </c>
       <c r="G19" t="n">
-        <v>0.33121073708290066</v>
+        <v>0.33138119800575944</v>
       </c>
       <c r="H19" t="n">
-        <v>0.28327234092616504</v>
+        <v>0.28341812987334686</v>
       </c>
       <c r="I19" t="s">
         <v>254</v>
@@ -1615,13 +1615,13 @@
         <v>192</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0902259481777025</v>
+        <v>0.09025965051523295</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3798987291692737</v>
+        <v>0.38004063374834923</v>
       </c>
       <c r="H20" t="n">
-        <v>0.32491338678951037</v>
+        <v>0.32503475254793024</v>
       </c>
       <c r="I20" t="s">
         <v>255</v>
@@ -1647,13 +1647,13 @@
         <v>193</v>
       </c>
       <c r="F21" t="n">
-        <v>0.14089113739375336</v>
+        <v>0.14099425429557316</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5635645495750135</v>
+        <v>0.5639770171822927</v>
       </c>
       <c r="H21" t="n">
-        <v>0.481995996347051</v>
+        <v>0.48234876469538185</v>
       </c>
       <c r="I21" t="s">
         <v>256</v>
@@ -1679,13 +1679,13 @@
         <v>194</v>
       </c>
       <c r="F22" t="n">
-        <v>0.16168014541919884</v>
+        <v>0.16179469744875005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6159243635017099</v>
+        <v>0.6163607521857144</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5267774161527782</v>
+        <v>0.5271506433167296</v>
       </c>
       <c r="I22" t="s">
         <v>257</v>
@@ -1711,13 +1711,13 @@
         <v>195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.17382163918184543</v>
+        <v>0.17391559599494927</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6320786879339834</v>
+        <v>0.6324203490725427</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5405936146803805</v>
+        <v>0.5408858248646747</v>
       </c>
       <c r="I23" t="s">
         <v>258</v>
@@ -1743,13 +1743,13 @@
         <v>196</v>
       </c>
       <c r="F24" t="n">
-        <v>0.19806488342707723</v>
+        <v>0.19816849921131274</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6791604679554564</v>
+        <v>0.6793847344307878</v>
       </c>
       <c r="H24" t="n">
-        <v>0.580860926540851</v>
+        <v>0.5810527333947527</v>
       </c>
       <c r="I24" t="s">
         <v>259</v>
@@ -1775,13 +1775,13 @@
         <v>181</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2037481403866369</v>
+        <v>0.20381542032923636</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6791604679554564</v>
+        <v>0.6793847344307878</v>
       </c>
       <c r="H25" t="n">
-        <v>0.580860926540851</v>
+        <v>0.5810527333947527</v>
       </c>
       <c r="I25" t="s">
         <v>260</v>
@@ -1807,13 +1807,13 @@
         <v>197</v>
       </c>
       <c r="F26" t="n">
-        <v>0.22788324909469815</v>
+        <v>0.2280438773441513</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7292263971030342</v>
+        <v>0.7297404075012842</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6236804712065422</v>
+        <v>0.6241200853629404</v>
       </c>
       <c r="I26" t="s">
         <v>261</v>
@@ -1839,13 +1839,13 @@
         <v>198</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2662428072203106</v>
+        <v>0.2606410129420821</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812461764380974</v>
+        <v>0.8019723475140987</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6948686142732015</v>
+        <v>0.6858974024791634</v>
       </c>
       <c r="I27" t="s">
         <v>262</v>
@@ -1871,13 +1871,13 @@
         <v>199</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2758924019480997</v>
+        <v>0.27602277049049606</v>
       </c>
       <c r="G28" t="n">
-        <v>0.812461764380974</v>
+        <v>0.8126136886126245</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6948686142732015</v>
+        <v>0.6949985494713236</v>
       </c>
       <c r="I28" t="s">
         <v>263</v>
@@ -1903,13 +1903,13 @@
         <v>200</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2843616175333409</v>
+        <v>0.2844147910144186</v>
       </c>
       <c r="G29" t="n">
-        <v>0.812461764380974</v>
+        <v>0.8126136886126245</v>
       </c>
       <c r="H29" t="n">
-        <v>0.6948686142732015</v>
+        <v>0.6949985494713236</v>
       </c>
       <c r="I29" t="s">
         <v>264</v>
@@ -1935,13 +1935,13 @@
         <v>201</v>
       </c>
       <c r="F30" t="n">
-        <v>0.32665736657742184</v>
+        <v>0.32671651980929883</v>
       </c>
       <c r="G30" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H30" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I30" t="s">
         <v>265</v>
@@ -1967,13 +1967,13 @@
         <v>202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3468650206363254</v>
+        <v>0.34692682585358603</v>
       </c>
       <c r="G31" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H31" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I31" t="s">
         <v>266</v>
@@ -1999,13 +1999,13 @@
         <v>202</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3468650206363254</v>
+        <v>0.34692682585358603</v>
       </c>
       <c r="G32" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H32" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I32" t="s">
         <v>267</v>
@@ -2025,25 +2025,25 @@
         <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33" t="s">
         <v>203</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3664705184831314</v>
+        <v>0.364876873720582</v>
       </c>
       <c r="G33" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H33" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I33" t="s">
         <v>268</v>
       </c>
       <c r="J33" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="34">
@@ -2057,25 +2057,25 @@
         <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="F34" t="n">
-        <v>0.37047003541789303</v>
+        <v>0.3665347646784949</v>
       </c>
       <c r="G34" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H34" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I34" t="s">
         <v>269</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -2089,25 +2089,25 @@
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3716038808934423</v>
+        <v>0.37057225172551467</v>
       </c>
       <c r="G35" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H35" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I35" t="s">
         <v>270</v>
       </c>
       <c r="J35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="36">
@@ -2127,13 +2127,13 @@
         <v>195</v>
       </c>
       <c r="F36" t="n">
-        <v>0.37422315757269864</v>
+        <v>0.3743545067934053</v>
       </c>
       <c r="G36" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H36" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I36" t="s">
         <v>271</v>
@@ -2159,13 +2159,13 @@
         <v>205</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3812781930881035</v>
+        <v>0.3813820884167217</v>
       </c>
       <c r="G37" t="n">
-        <v>0.847284873529119</v>
+        <v>0.8475157520371595</v>
       </c>
       <c r="H37" t="n">
-        <v>0.724651536570957</v>
+        <v>0.7248489984528338</v>
       </c>
       <c r="I37" t="s">
         <v>272</v>
@@ -2191,13 +2191,13 @@
         <v>206</v>
       </c>
       <c r="F38" t="n">
-        <v>0.40265566162954514</v>
+        <v>0.4027626610203019</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8653325667454318</v>
+        <v>0.8654769821918531</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7400870636638562</v>
+        <v>0.7402105768746113</v>
       </c>
       <c r="I38" t="s">
         <v>273</v>
@@ -2223,13 +2223,13 @@
         <v>207</v>
       </c>
       <c r="F39" t="n">
-        <v>0.421459676496064</v>
+        <v>0.4216656386854113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8653325667454318</v>
+        <v>0.8654769821918531</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7400870636638562</v>
+        <v>0.7402105768746113</v>
       </c>
       <c r="I39" t="s">
         <v>274</v>
@@ -2255,13 +2255,13 @@
         <v>208</v>
       </c>
       <c r="F40" t="n">
-        <v>0.42184962628839806</v>
+        <v>0.4219200288185284</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8653325667454318</v>
+        <v>0.8654769821918531</v>
       </c>
       <c r="H40" t="n">
-        <v>0.7400870636638562</v>
+        <v>0.7402105768746113</v>
       </c>
       <c r="I40" t="s">
         <v>275</v>
@@ -2287,13 +2287,13 @@
         <v>185</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4882810639106425</v>
+        <v>0.48835729115983106</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I41" t="s">
         <v>276</v>
@@ -2319,13 +2319,13 @@
         <v>209</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4938180687149203</v>
+        <v>0.49396528263077266</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I42" t="s">
         <v>277</v>
@@ -2351,13 +2351,13 @@
         <v>210</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5187147691098648</v>
+        <v>0.5125000556403585</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H43" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I43" t="s">
         <v>278</v>
@@ -2383,13 +2383,13 @@
         <v>211</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5385403156578946</v>
+        <v>0.5386902267447724</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H44" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I44" t="s">
         <v>279</v>
@@ -2415,13 +2415,13 @@
         <v>212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5409708564563169</v>
+        <v>0.54109059570315</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I45" t="s">
         <v>280</v>
@@ -2447,13 +2447,13 @@
         <v>180</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5471286027925985</v>
+        <v>0.5472083996486264</v>
       </c>
       <c r="G46" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I46" t="s">
         <v>281</v>
@@ -2479,13 +2479,13 @@
         <v>180</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5471286027925985</v>
+        <v>0.5472083996486264</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H47" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I47" t="s">
         <v>276</v>
@@ -2511,13 +2511,13 @@
         <v>176</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5588730427213768</v>
+        <v>0.5589934343770693</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I48" t="s">
         <v>282</v>
@@ -2543,13 +2543,13 @@
         <v>176</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5588730427213768</v>
+        <v>0.5589934343770693</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I49" t="s">
         <v>283</v>
@@ -2575,13 +2575,13 @@
         <v>213</v>
       </c>
       <c r="F50" t="n">
-        <v>0.560758519624192</v>
+        <v>0.5608389092614893</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9155241136721503</v>
+        <v>0.9156553620595743</v>
       </c>
       <c r="H50" t="n">
-        <v>0.7830140445880232</v>
+        <v>0.7831262964983201</v>
       </c>
       <c r="I50" t="s">
         <v>264</v>
@@ -2597,8 +2597,8 @@
       <c r="B51" t="s">
         <v>58</v>
       </c>
-      <c r="C51" t="e">
-        <v>#N/A</v>
+      <c r="C51" t="s">
+        <v>58</v>
       </c>
       <c r="D51" t="s">
         <v>174</v>
@@ -2607,13 +2607,13 @@
         <v>214</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5868085077355918</v>
+        <v>0.5868897670634552</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H51" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I51" t="s">
         <v>284</v>
@@ -2639,13 +2639,13 @@
         <v>215</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6193785172319041</v>
+        <v>0.6196298230065072</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I52" t="s">
         <v>285</v>
@@ -2671,13 +2671,13 @@
         <v>191</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6343952394257506</v>
+        <v>0.6344771295798556</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I53" t="s">
         <v>264</v>
@@ -2703,13 +2703,13 @@
         <v>191</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6343952394257506</v>
+        <v>0.6344771295798556</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I54" t="s">
         <v>286</v>
@@ -2735,13 +2735,13 @@
         <v>191</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6343952394257506</v>
+        <v>0.6344771295798556</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H55" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I55" t="s">
         <v>287</v>
@@ -2767,13 +2767,13 @@
         <v>191</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6343952394257506</v>
+        <v>0.6344771295798556</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9227567118920009</v>
+        <v>0.9228758248434263</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7891998193813166</v>
+        <v>0.7893016923002988</v>
       </c>
       <c r="I56" t="s">
         <v>288</v>
@@ -2799,13 +2799,13 @@
         <v>216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6862955961614698</v>
+        <v>0.6863765967460498</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I57" t="s">
         <v>276</v>
@@ -2831,13 +2831,13 @@
         <v>217</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7049447792443555</v>
+        <v>0.7050250095778201</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I58" t="s">
         <v>287</v>
@@ -2863,13 +2863,13 @@
         <v>218</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7224929135719691</v>
+        <v>0.7225721801511524</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I59" t="s">
         <v>289</v>
@@ -2895,13 +2895,13 @@
         <v>187</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7308744106708756</v>
+        <v>0.7309531308279533</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I60" t="s">
         <v>284</v>
@@ -2927,13 +2927,13 @@
         <v>219</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7396585408910412</v>
+        <v>0.7397950047549626</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I61" t="s">
         <v>290</v>
@@ -2959,13 +2959,13 @@
         <v>219</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7396585408910412</v>
+        <v>0.7397950047549626</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9700439880538245</v>
+        <v>0.9702229570556886</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8296428845197183</v>
+        <v>0.829795950113418</v>
       </c>
       <c r="I62" t="s">
         <v>291</v>
@@ -2991,13 +2991,13 @@
         <v>220</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7749156094649372</v>
+        <v>0.7750968857779089</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I63" t="s">
         <v>292</v>
@@ -3023,13 +3023,13 @@
         <v>221</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7764728646867796</v>
+        <v>0.7766013667364908</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I64" t="s">
         <v>293</v>
@@ -3055,13 +3055,13 @@
         <v>222</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7839116550666736</v>
+        <v>0.7840156693578025</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I65" t="s">
         <v>294</v>
@@ -3078,28 +3078,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E66" t="s">
         <v>223</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8138371701370164</v>
+        <v>0.8120547247536668</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H66" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I66" t="s">
         <v>295</v>
       </c>
       <c r="J66" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -3109,29 +3109,29 @@
       <c r="B67" t="s">
         <v>74</v>
       </c>
-      <c r="C67" t="e">
-        <v>#N/A</v>
+      <c r="C67" t="s">
+        <v>151</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E67" t="s">
         <v>224</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8163049727003042</v>
+        <v>0.8139070044504464</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I67" t="s">
         <v>296</v>
       </c>
       <c r="J67" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68">
@@ -3151,13 +3151,13 @@
         <v>225</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8271741005865384</v>
+        <v>0.8272879620909189</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I68" t="s">
         <v>297</v>
@@ -3183,13 +3183,13 @@
         <v>226</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8452252240152601</v>
+        <v>0.8452897032274408</v>
       </c>
       <c r="G69" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I69" t="s">
         <v>298</v>
@@ -3215,13 +3215,13 @@
         <v>227</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8551006775365367</v>
+        <v>0.8551866926314254</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H70" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I70" t="s">
         <v>299</v>
@@ -3247,13 +3247,13 @@
         <v>228</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8642979247723142</v>
+        <v>0.8644568331503106</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I71" t="s">
         <v>300</v>
@@ -3279,13 +3279,13 @@
         <v>229</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8865216556246874</v>
+        <v>0.8866241542316434</v>
       </c>
       <c r="G72" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H72" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I72" t="s">
         <v>301</v>
@@ -3311,13 +3311,13 @@
         <v>195</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8930970728374075</v>
+        <v>0.8931505117307461</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H73" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I73" t="s">
         <v>302</v>
@@ -3343,13 +3343,13 @@
         <v>230</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9043732272649336</v>
+        <v>0.9044409523021146</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I74" t="s">
         <v>303</v>
@@ -3375,13 +3375,13 @@
         <v>231</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9165151800069372</v>
+        <v>0.9165615684119602</v>
       </c>
       <c r="G75" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H75" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I75" t="s">
         <v>304</v>
@@ -3407,13 +3407,13 @@
         <v>232</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9282338774645883</v>
+        <v>0.9283099066400959</v>
       </c>
       <c r="G76" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H76" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I76" t="s">
         <v>305</v>
@@ -3429,8 +3429,8 @@
       <c r="B77" t="s">
         <v>84</v>
       </c>
-      <c r="C77" t="e">
-        <v>#N/A</v>
+      <c r="C77" t="s">
+        <v>84</v>
       </c>
       <c r="D77" t="s">
         <v>174</v>
@@ -3439,13 +3439,13 @@
         <v>233</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9284853269569907</v>
+        <v>0.9285275640145089</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9773529757442007</v>
+        <v>0.9773974358047461</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8358939924128033</v>
+        <v>0.8359320174645856</v>
       </c>
       <c r="I77" t="s">
         <v>306</v>
@@ -3471,13 +3471,13 @@
         <v>234</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9492977799162989</v>
+        <v>0.9493424080202577</v>
       </c>
       <c r="G78" t="n">
-        <v>0.9862834077052456</v>
+        <v>0.9863297745665014</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8435318618531706</v>
+        <v>0.8435715177213499</v>
       </c>
       <c r="I78" t="s">
         <v>307</v>
@@ -3500,16 +3500,16 @@
         <v>174</v>
       </c>
       <c r="E79" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="F79" t="n">
-        <v>0.978742296033037</v>
+        <v>0.9800479142923089</v>
       </c>
       <c r="G79" t="n">
-        <v>0.9958963606076732</v>
+        <v>0.9959118324512591</v>
       </c>
       <c r="H79" t="n">
-        <v>0.851753466309194</v>
+        <v>0.8517666988069978</v>
       </c>
       <c r="I79" t="s">
         <v>308</v>
@@ -3535,13 +3535,13 @@
         <v>235</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9834476561000772</v>
+        <v>0.9834629345456183</v>
       </c>
       <c r="G80" t="n">
-        <v>0.9958963606076732</v>
+        <v>0.9959118324512591</v>
       </c>
       <c r="H80" t="n">
-        <v>0.851753466309194</v>
+        <v>0.8517666988069978</v>
       </c>
       <c r="I80" t="s">
         <v>284</v>
@@ -3567,13 +3567,13 @@
         <v>236</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9990695024909749</v>
+        <v>0.9990709792668957</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9990695024909749</v>
+        <v>0.9990709792668957</v>
       </c>
       <c r="H81" t="n">
-        <v>0.8544673376567549</v>
+        <v>0.8544686006887924</v>
       </c>
       <c r="I81" t="s">
         <v>309</v>
